--- a/MirrorMe/Mindmaps.xlsx
+++ b/MirrorMe/Mindmaps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beweringen" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="onBehalfOf" sheetId="26" r:id="rId10"/>
     <sheet name="pop" sheetId="28" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="157">
   <si>
     <t>7148691</t>
   </si>
@@ -301,9 +301,6 @@
     <t>rechtsfeit</t>
   </si>
   <si>
-    <t>feit </t>
-  </si>
-  <si>
     <t>bloot feit</t>
   </si>
   <si>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>Een partij is een natuurlijke persoon of rechtspersoon, die met een of meer andere partijen een overeenkomst heeft.</t>
+  </si>
+  <si>
+    <t>feit</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
     <col min="3" max="3" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1311,8 +1311,9 @@
       <c r="E1" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1325,9 +1326,12 @@
       <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1347,12 @@
       <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="str">
+        <f t="shared" ref="G1:G59" si="0">VLOOKUP(E3,$A$3:$B$61,1,FALSE)</f>
+        <v>Overeenkomst</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -1358,8 +1366,12 @@
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>partij</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1373,8 +1385,12 @@
       <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>partij</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
@@ -1382,14 +1398,18 @@
         <v>42</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1403,8 +1423,12 @@
         <v>5</v>
       </c>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -1414,13 +1438,17 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>77</v>
@@ -1429,8 +1457,12 @@
       <c r="E9" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>rechtsfeit</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>78</v>
       </c>
@@ -1438,769 +1470,981 @@
         <v>78</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>feit</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>feit</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>rechtsfeit</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>rechtsfeit</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>rechtshandeling </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>rechtshandeling </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzijdigeRechtshandeling</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzijdigeRechtshandeling</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MeerzijdigeRechtshandeling</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MeerzijdigeRechtshandeling</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>feitelijkeHandeling</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>feitelijkeHandeling</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MeerzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PrivaatrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>VerbObligOvereenkomst</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>VerbObligOvereenkomst</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PrivaatrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PrivaatrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PrivaatrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GerEenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GerEenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GerEenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OngEenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OngEenzPrivRechtshandling</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzPublRechtshandling</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzPublRechtshandling</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzPublRechtshandling</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>WederkerigeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>WederkerigeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>EenzijdigeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GoederenrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GoederenrechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BevrijdendeLiberatoireOvereenkomst</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BevrijdendeLiberatoireOvereenkomst</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FamilierechtelijkeOvereenkomst</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MeerzPublRechtshandling</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OnrechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>RechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>RechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>RechtmatigeDaad</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blootRechtsfeit</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blootRechtsfeit</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blootRechtsfeit</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(E60,$A$3:$B$61,1,FALSE)</f>
+        <v>blootRechtsfeit</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/MirrorMe/Mindmaps.xlsx
+++ b/MirrorMe/Mindmaps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Beweringen" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="134">
   <si>
     <t>7148691</t>
   </si>
@@ -257,47 +257,6 @@
     <t>Art 7:625 lid 1 BW</t>
   </si>
   <si>
-    <r>
-      <t>Een rechtshandeling is een handeling die iemand uitvoert met de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5A3696"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bedoeling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> een bepaald </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5A3696"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rechtsgevolg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> tot stand te brengen.</t>
-    </r>
-  </si>
-  <si>
     <t>rechtsfeit</t>
   </si>
   <si>
@@ -331,108 +290,18 @@
     <t>Een bloot rechtsfeit is een feit met rechtsgevolg, zijnde geen menselijke handeling.</t>
   </si>
   <si>
-    <t>Eenzijdige rechtshandeling</t>
-  </si>
-  <si>
-    <t>Meerzijdige rechtshandeling</t>
-  </si>
-  <si>
-    <t>Eenzijdige privaatrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>Eenzijdige publieksrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>Meerzijdige privaatrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>Meerzijdige publieksrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>EenzijdigeRechtshandeling</t>
-  </si>
-  <si>
-    <t>MeerzijdigeRechtshandeling</t>
-  </si>
-  <si>
     <t>Onrechtmatige daad</t>
   </si>
   <si>
     <t>Rechtmatige daad</t>
   </si>
   <si>
-    <t>EenzPublRechtshandling</t>
-  </si>
-  <si>
-    <t>EenzPrivRechtshandling</t>
-  </si>
-  <si>
-    <t>MeerzPrivRechtshandling</t>
-  </si>
-  <si>
-    <t>MeerzPublRechtshandling</t>
-  </si>
-  <si>
-    <t>Ongerichte eenzijdige privaatrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>Gerichte eenzijdige privaatrechtelijke rechtshandeling</t>
-  </si>
-  <si>
-    <t>OngEenzPrivRechtshandling</t>
-  </si>
-  <si>
-    <t>GerEenzPrivRechtshandling</t>
-  </si>
-  <si>
     <t>OnrechtmatigeDaad</t>
   </si>
   <si>
     <t>RechtmatigeDaad</t>
   </si>
   <si>
-    <t>Privaatrechtelijke overeenkomst</t>
-  </si>
-  <si>
-    <t>PrivaatrechtelijkeOvereenkomst</t>
-  </si>
-  <si>
-    <t>VerbObligOvereenkomst</t>
-  </si>
-  <si>
-    <t>Verbintenisscheppende obligatoire overeenkomst</t>
-  </si>
-  <si>
-    <t>Wederkerige overeenkomst</t>
-  </si>
-  <si>
-    <t>Eenzijdige overeenkomst</t>
-  </si>
-  <si>
-    <t>WederkerigeOvereenkomst</t>
-  </si>
-  <si>
-    <t>EenzijdigeOvereenkomst</t>
-  </si>
-  <si>
-    <t>Bevrijdende liberatoire overeenkomst</t>
-  </si>
-  <si>
-    <t>Familierechtelijke overeenkomst</t>
-  </si>
-  <si>
-    <t>Goederenrechtelijke overeenkomst</t>
-  </si>
-  <si>
-    <t>GoederenrechtelijkeOvereenkomst</t>
-  </si>
-  <si>
-    <t>BevrijdendeLiberatoireOvereenkomst</t>
-  </si>
-  <si>
-    <t>FamilierechtelijkeOvereenkomst</t>
-  </si>
-  <si>
     <t>aanbod</t>
   </si>
   <si>
@@ -523,54 +392,40 @@
     <t>naburigheid</t>
   </si>
   <si>
-    <t>rechtshandeling </t>
-  </si>
-  <si>
-    <r>
-      <t>Een rechtsfeit is een feit waaraan het objectieve recht een </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5A3696"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rechtsgevolg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> koppelt, zoals het ontstaan van een </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5A3696"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>subjectief recht</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Het begrip rechtsfeit is geen wettelijk begrip, doch een begrip uit de rechtswetenschap, ook wel de doctrine genoemd.</t>
-    </r>
-  </si>
-  <si>
     <t>Een partij is een natuurlijke persoon of rechtspersoon, die met een of meer andere partijen een overeenkomst heeft.</t>
   </si>
   <si>
     <t>feit</t>
+  </si>
+  <si>
+    <t>rechtshandeling</t>
+  </si>
+  <si>
+    <t>gericht</t>
+  </si>
+  <si>
+    <t>ongericht</t>
+  </si>
+  <si>
+    <t>eenzijdig</t>
+  </si>
+  <si>
+    <t>meerzijdig</t>
+  </si>
+  <si>
+    <t>privaatrechtelijk</t>
+  </si>
+  <si>
+    <t>publiekrechtlijk</t>
+  </si>
+  <si>
+    <t>wederkerig</t>
+  </si>
+  <si>
+    <t>Een rechtshandeling is een handeling die iemand uitvoert met de bedoeling een bepaald rechtsgevolg tot stand te brengen.</t>
+  </si>
+  <si>
+    <t>Een rechtsfeit is een feit waaraan het objectieve recht een rechtsgevolg koppelt, zoals het ontstaan van een subjectief recht. Het begrip rechtsfeit is geen wettelijk begrip, doch een begrip uit de rechtswetenschap, ook wel de doctrine genoemd.</t>
   </si>
 </sst>
 </file>
@@ -595,20 +450,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF5A3696"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -633,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -643,9 +496,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1283,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,1160 +1147,1107 @@
     <col min="3" max="3" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="str">
-        <f t="shared" ref="G1:G59" si="0">VLOOKUP(E3,$A$3:$B$61,1,FALSE)</f>
-        <v>Overeenkomst</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>partij</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>partij</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="G7" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>rechtsfeit</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>feit</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="D12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>feit</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>rechtsfeit</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>rechtsfeit</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>rechtshandeling </v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>rechtshandeling </v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzijdigeRechtshandeling</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzijdigeRechtshandeling</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MeerzijdigeRechtshandeling</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MeerzijdigeRechtshandeling</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>feitelijkeHandeling</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>feitelijkeHandeling</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MeerzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PrivaatrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>VerbObligOvereenkomst</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>VerbObligOvereenkomst</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PrivaatrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PrivaatrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PrivaatrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GerEenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GerEenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GerEenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OngEenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OngEenzPrivRechtshandling</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzPublRechtshandling</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzPublRechtshandling</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzPublRechtshandling</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>WederkerigeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>WederkerigeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>EenzijdigeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GoederenrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GoederenrechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>BevrijdendeLiberatoireOvereenkomst</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>BevrijdendeLiberatoireOvereenkomst</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FamilierechtelijkeOvereenkomst</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MeerzPublRechtshandling</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>OnrechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>RechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>RechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>RechtmatigeDaad</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>blootRechtsfeit</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>blootRechtsfeit</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>blootRechtsfeit</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" t="str">
-        <f>VLOOKUP(E60,$A$3:$B$61,1,FALSE)</f>
-        <v>blootRechtsfeit</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2776,9 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MirrorMe/Mindmaps.xlsx
+++ b/MirrorMe/Mindmaps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="7"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Beweringen" sheetId="2" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,11 +2575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/MirrorMe/Mindmaps.xlsx
+++ b/MirrorMe/Mindmaps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Beweringen" sheetId="2" r:id="rId1"/>
@@ -799,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +811,7 @@
     <col min="4" max="4" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -834,7 +834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -857,13 +857,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="7">
-        <v>42348</v>
-      </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
@@ -879,14 +876,14 @@
       <c r="G3" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="7">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="7">
-        <v>42348</v>
-      </c>
       <c r="C4" s="6" t="s">
         <v>63</v>
       </c>
@@ -902,14 +899,14 @@
       <c r="G4" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="7">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7">
-        <v>42348</v>
-      </c>
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
@@ -925,14 +922,14 @@
       <c r="G5" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="7">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7">
-        <v>42348</v>
-      </c>
       <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
@@ -948,14 +945,14 @@
       <c r="G6" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="7">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="7">
-        <v>42348</v>
-      </c>
       <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
@@ -970,6 +967,9 @@
       </c>
       <c r="G7" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="J7" s="7">
+        <v>42348</v>
       </c>
     </row>
   </sheetData>
@@ -2573,19 +2573,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2607,55 +2607,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>42342.78193287037</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>42339.340358796297</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
         <v>42339.339328703703</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
         <v>42312.644884259258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
         <v>42343.380995370368</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
         <v>42346.690023148149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
         <v>42346.4143287037</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
         <v>42347.963634259257</v>
       </c>
     </row>
